--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.042721.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.042721.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3519,12 +3519,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3865,12 +3865,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4775,12 +4775,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5459,12 +5459,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5767,12 +5767,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6193,12 +6193,12 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6387,12 +6387,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6805,12 +6805,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7185,12 +7185,12 @@
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8101,12 +8101,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8907,12 +8907,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9101,12 +9101,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9413,12 +9413,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10113,12 +10113,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11337,12 +11337,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11645,12 +11645,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11953,12 +11953,12 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12029,12 +12029,12 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12337,12 +12337,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12949,12 +12949,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13101,12 +13101,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13177,12 +13177,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13367,12 +13367,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13485,12 +13485,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13637,12 +13637,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14055,12 +14055,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14359,12 +14359,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14435,12 +14435,12 @@
       <c r="H366" t="inlineStr"/>
       <c r="I366" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14549,12 +14549,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14663,12 +14663,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14777,12 +14777,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15503,12 +15503,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15769,12 +15769,12 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16649,12 +16649,12 @@
       <c r="H424" t="inlineStr"/>
       <c r="I424" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19511,12 +19511,12 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19549,12 +19549,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20233,12 +20233,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20385,12 +20385,12 @@
       <c r="H522" t="inlineStr"/>
       <c r="I522" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J522" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20461,12 +20461,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20575,12 +20575,12 @@
       </c>
       <c r="I527" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20689,12 +20689,12 @@
       <c r="H530" t="inlineStr"/>
       <c r="I530" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J530" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21069,12 +21069,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21943,12 +21943,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21981,12 +21981,12 @@
       </c>
       <c r="I564" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22057,12 +22057,12 @@
       <c r="H566" t="inlineStr"/>
       <c r="I566" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22171,12 +22171,12 @@
       <c r="H569" t="inlineStr"/>
       <c r="I569" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22247,12 +22247,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22475,12 +22475,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23197,12 +23197,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23273,12 +23273,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23387,12 +23387,12 @@
       </c>
       <c r="I601" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23425,12 +23425,12 @@
       <c r="H602" t="inlineStr"/>
       <c r="I602" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J602" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23501,12 +23501,12 @@
       <c r="H604" t="inlineStr"/>
       <c r="I604" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J604" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23539,12 +23539,12 @@
       <c r="H605" t="inlineStr"/>
       <c r="I605" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J605" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24109,12 +24109,12 @@
       <c r="H620" t="inlineStr"/>
       <c r="I620" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24417,12 +24417,12 @@
       <c r="H628" t="inlineStr"/>
       <c r="I628" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J628" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24493,12 +24493,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24721,12 +24721,12 @@
       </c>
       <c r="I636" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J636" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24759,12 +24759,12 @@
       </c>
       <c r="I637" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25063,12 +25063,12 @@
       <c r="H645" t="inlineStr"/>
       <c r="I645" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J645" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25367,12 +25367,12 @@
       </c>
       <c r="I653" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J653" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25481,12 +25481,12 @@
       <c r="H656" t="inlineStr"/>
       <c r="I656" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J656" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25523,12 +25523,12 @@
       </c>
       <c r="I657" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J657" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26363,12 +26363,12 @@
       </c>
       <c r="I679" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J679" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26515,12 +26515,12 @@
       <c r="H683" t="inlineStr"/>
       <c r="I683" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J683" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26591,12 +26591,12 @@
       <c r="H685" t="inlineStr"/>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26629,12 +26629,12 @@
       </c>
       <c r="I686" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26781,12 +26781,12 @@
       <c r="H690" t="inlineStr"/>
       <c r="I690" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J690" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26819,12 +26819,12 @@
       </c>
       <c r="I691" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27587,12 +27587,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27663,12 +27663,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27701,12 +27701,12 @@
       <c r="H714" t="inlineStr"/>
       <c r="I714" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J714" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27853,12 +27853,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28195,12 +28195,12 @@
       <c r="H727" t="inlineStr"/>
       <c r="I727" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28309,12 +28309,12 @@
       </c>
       <c r="I730" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J730" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28465,12 +28465,12 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J734" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28503,12 +28503,12 @@
       <c r="H735" t="inlineStr"/>
       <c r="I735" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J735" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28731,12 +28731,12 @@
       <c r="H741" t="inlineStr"/>
       <c r="I741" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
